--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H2">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1928.190747136526</v>
+        <v>2111.019730930125</v>
       </c>
       <c r="R2">
-        <v>17353.71672422874</v>
+        <v>18999.17757837113</v>
       </c>
       <c r="S2">
-        <v>0.5330863775069697</v>
+        <v>0.5295465273059733</v>
       </c>
       <c r="T2">
-        <v>0.5330863775069696</v>
+        <v>0.5295465273059733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H3">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>354.2642924892249</v>
+        <v>339.8574850740498</v>
       </c>
       <c r="R3">
-        <v>3188.378632403024</v>
+        <v>3058.717365666448</v>
       </c>
       <c r="S3">
-        <v>0.09794335370792992</v>
+        <v>0.08525280382889122</v>
       </c>
       <c r="T3">
-        <v>0.09794335370792991</v>
+        <v>0.08525280382889122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H4">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>392.8888421346122</v>
+        <v>498.5843442932222</v>
       </c>
       <c r="R4">
-        <v>3535.99957921151</v>
+        <v>4487.259098639</v>
       </c>
       <c r="S4">
-        <v>0.1086218725649856</v>
+        <v>0.1250692280234025</v>
       </c>
       <c r="T4">
-        <v>0.1086218725649856</v>
+        <v>0.1250692280234025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H5">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>492.3820086404963</v>
+        <v>625.1324737570999</v>
       </c>
       <c r="R5">
-        <v>4431.438077764466</v>
+        <v>5626.192263813899</v>
       </c>
       <c r="S5">
-        <v>0.1361287215622047</v>
+        <v>0.1568136601160087</v>
       </c>
       <c r="T5">
-        <v>0.1361287215622047</v>
+        <v>0.1568136601160087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H6">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>420.6450962536329</v>
+        <v>323.3676908182853</v>
       </c>
       <c r="R6">
-        <v>3785.805866282697</v>
+        <v>2910.309217364568</v>
       </c>
       <c r="S6">
-        <v>0.1162956366795812</v>
+        <v>0.08111636059428316</v>
       </c>
       <c r="T6">
-        <v>0.1162956366795812</v>
+        <v>0.08111636059428316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.455806</v>
       </c>
       <c r="I7">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J7">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>9.137904386803111</v>
+        <v>10.42844244975</v>
       </c>
       <c r="R7">
-        <v>82.241139481228</v>
+        <v>93.85598204775</v>
       </c>
       <c r="S7">
-        <v>0.002526353969284452</v>
+        <v>0.002615961093855877</v>
       </c>
       <c r="T7">
-        <v>0.002526353969284452</v>
+        <v>0.002615961093855877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.455806</v>
       </c>
       <c r="I8">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J8">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>1.678896777838222</v>
@@ -948,10 +948,10 @@
         <v>15.110071000544</v>
       </c>
       <c r="S8">
-        <v>0.0004641641408325516</v>
+        <v>0.0004211490519881107</v>
       </c>
       <c r="T8">
-        <v>0.0004641641408325516</v>
+        <v>0.0004211490519881107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.455806</v>
       </c>
       <c r="I9">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J9">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>1.861942693895556</v>
+        <v>2.463007836746889</v>
       </c>
       <c r="R9">
-        <v>16.75748424506</v>
+        <v>22.167070530722</v>
       </c>
       <c r="S9">
-        <v>0.0005147707960368459</v>
+        <v>0.0006178422814182045</v>
       </c>
       <c r="T9">
-        <v>0.0005147707960368458</v>
+        <v>0.0006178422814182045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.455806</v>
       </c>
       <c r="I10">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J10">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>2.333451565111333</v>
+        <v>3.088155894769111</v>
       </c>
       <c r="R10">
-        <v>21.001064086002</v>
+        <v>27.793403052922</v>
       </c>
       <c r="S10">
-        <v>0.0006451287269065463</v>
+        <v>0.0007746598508266537</v>
       </c>
       <c r="T10">
-        <v>0.0006451287269065463</v>
+        <v>0.0007746598508266537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.455806</v>
       </c>
       <c r="I11">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J11">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>1.993482582598</v>
+        <v>1.597437155322667</v>
       </c>
       <c r="R11">
-        <v>17.941343243382</v>
+        <v>14.376934397904</v>
       </c>
       <c r="S11">
-        <v>0.000551137593704655</v>
+        <v>0.0004007150126531199</v>
       </c>
       <c r="T11">
-        <v>0.000551137593704655</v>
+        <v>0.0004007150126531199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H12">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>5.290191598366889</v>
+        <v>32.07882116250001</v>
       </c>
       <c r="R12">
-        <v>47.611724385302</v>
+        <v>288.7093904625</v>
       </c>
       <c r="S12">
-        <v>0.001462577849042821</v>
+        <v>0.008046930162602786</v>
       </c>
       <c r="T12">
-        <v>0.00146257784904282</v>
+        <v>0.008046930162602786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H13">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>0.9719608843217777</v>
+        <v>5.164436563377778</v>
       </c>
       <c r="R13">
-        <v>8.747647958896</v>
+        <v>46.4799290704</v>
       </c>
       <c r="S13">
-        <v>0.0002687177643970305</v>
+        <v>0.001295492129968737</v>
       </c>
       <c r="T13">
-        <v>0.0002687177643970305</v>
+        <v>0.001295492129968737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H14">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>1.077931348254444</v>
+        <v>7.576432271411113</v>
       </c>
       <c r="R14">
-        <v>9.70138213429</v>
+        <v>68.18789044270001</v>
       </c>
       <c r="S14">
-        <v>0.0002980153900725459</v>
+        <v>0.001900538085888436</v>
       </c>
       <c r="T14">
-        <v>0.0002980153900725458</v>
+        <v>0.001900538085888436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H15">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>1.350901185043667</v>
+        <v>9.49944357918889</v>
       </c>
       <c r="R15">
-        <v>12.158110665393</v>
+        <v>85.49499221270001</v>
       </c>
       <c r="S15">
-        <v>0.0003734832874674149</v>
+        <v>0.002382922947139904</v>
       </c>
       <c r="T15">
-        <v>0.0003734832874674148</v>
+        <v>0.002382922947139904</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H16">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>1.154083514507</v>
+        <v>4.913859482933334</v>
       </c>
       <c r="R16">
-        <v>10.386751630563</v>
+        <v>44.2247353464</v>
       </c>
       <c r="S16">
-        <v>0.0003190691590044682</v>
+        <v>0.00123263519839787</v>
       </c>
       <c r="T16">
-        <v>0.0003190691590044682</v>
+        <v>0.00123263519839787</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H17">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>0.9729995908546668</v>
+        <v>5.424526141875001</v>
       </c>
       <c r="R17">
-        <v>8.756996317692</v>
+        <v>48.820735276875</v>
       </c>
       <c r="S17">
-        <v>0.0002690049353129437</v>
+        <v>0.0013607352591843</v>
       </c>
       <c r="T17">
-        <v>0.0002690049353129437</v>
+        <v>0.0013607352591843</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H18">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>0.1787681079573334</v>
+        <v>0.8733058176977778</v>
       </c>
       <c r="R18">
-        <v>1.608912971616</v>
+        <v>7.859752359280001</v>
       </c>
       <c r="S18">
-        <v>4.942397074888672E-05</v>
+        <v>0.0002190676175415003</v>
       </c>
       <c r="T18">
-        <v>4.942397074888672E-05</v>
+        <v>0.0002190676175415003</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H19">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>0.1982587475933334</v>
+        <v>1.281174102696111</v>
       </c>
       <c r="R19">
-        <v>1.78432872834</v>
+        <v>11.530566924265</v>
       </c>
       <c r="S19">
-        <v>5.48125426493997E-05</v>
+        <v>0.0003213808412193986</v>
       </c>
       <c r="T19">
-        <v>5.481254264939969E-05</v>
+        <v>0.0003213808412193986</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H20">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>0.248464781642</v>
+        <v>1.606355163973889</v>
       </c>
       <c r="R20">
-        <v>2.236183034778</v>
+        <v>14.457196475765</v>
       </c>
       <c r="S20">
-        <v>6.869299138598947E-05</v>
+        <v>0.0004029520834121215</v>
       </c>
       <c r="T20">
-        <v>6.869299138598945E-05</v>
+        <v>0.0004029520834121215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H21">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>0.212265050622</v>
+        <v>0.8309332530533333</v>
       </c>
       <c r="R21">
-        <v>1.910385455598</v>
+        <v>7.47839927748</v>
       </c>
       <c r="S21">
-        <v>5.868486148243273E-05</v>
+        <v>0.0002084385153442286</v>
       </c>
       <c r="T21">
-        <v>5.868486148243272E-05</v>
+        <v>0.0002084385153442286</v>
       </c>
     </row>
   </sheetData>
